--- a/Cronograma proyecto fundamentos SW.xlsx
+++ b/Cronograma proyecto fundamentos SW.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Fundamentos de SW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Proyecto_Discoteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE90F32-DDDF-4C0E-92A3-63C73F111935}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E28C338-B37F-4D1E-AD2F-E7BA9BC20C41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D986376F-8C97-4DB8-A64D-C8306675A2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>Cronograma de iteraciones</t>
   </si>
@@ -68,24 +71,12 @@
     <t>Semana iteración</t>
   </si>
   <si>
-    <t>Revisión y corrección de errores de código</t>
-  </si>
-  <si>
     <t>Tener una base de datos</t>
   </si>
   <si>
     <t>Entrega iteración 1</t>
   </si>
   <si>
-    <t>Crear MVC</t>
-  </si>
-  <si>
-    <t>Crear clases del MVC en en proyecto</t>
-  </si>
-  <si>
-    <t>Revisión y corrección de errores de pantallas</t>
-  </si>
-  <si>
     <t>Crear proyecto JavaFx y vincularlo a GitHub</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>(Debe tener pantalla + objetivos + flujos alternativos + flujos básicos)</t>
   </si>
   <si>
-    <t>Documentación del código del proyecto</t>
-  </si>
-  <si>
     <t>Actualizar documentación del código del proyecto</t>
   </si>
   <si>
@@ -107,24 +95,12 @@
     <t>Usuarios a nuestra elección, dejar por escrito las observaciones</t>
   </si>
   <si>
-    <t>Oracle SQL preferiblemente</t>
-  </si>
-  <si>
     <t>Juan Diego Echeverry</t>
   </si>
   <si>
-    <t>2 Casos de Uso</t>
-  </si>
-  <si>
-    <t>Crear flujos normales y flujos alternos de los C.U elegidos</t>
-  </si>
-  <si>
     <t>Crear modelo relacional</t>
   </si>
   <si>
-    <t>Crear pantallas de primer Casos de Uso seleccionados</t>
-  </si>
-  <si>
     <t>Conectar proyecto con base de datos</t>
   </si>
   <si>
@@ -134,9 +110,6 @@
     <t>Crear DDL de la base de datos</t>
   </si>
   <si>
-    <t>Modelo Vista Controlador en Visual Paradigm</t>
-  </si>
-  <si>
     <t>Corregir visión del proyecto</t>
   </si>
   <si>
@@ -146,9 +119,6 @@
     <t>Debe contener todos los elementos mencionados arriba</t>
   </si>
   <si>
-    <t>Deben revisarse las pantallas y el código antes de documentar</t>
-  </si>
-  <si>
     <t>Santiago Yañez</t>
   </si>
   <si>
@@ -156,6 +126,90 @@
   </si>
   <si>
     <t>Andres Rincón</t>
+  </si>
+  <si>
+    <t>Crear UML</t>
+  </si>
+  <si>
+    <t>Crear MVC Front End</t>
+  </si>
+  <si>
+    <t>Crear MVC Base de datos</t>
+  </si>
+  <si>
+    <t>Crear MVC de control</t>
+  </si>
+  <si>
+    <t>Revisar UML</t>
+  </si>
+  <si>
+    <t>Revisar MVC</t>
+  </si>
+  <si>
+    <t>Corregir UML</t>
+  </si>
+  <si>
+    <t>Corregir MVC en general</t>
+  </si>
+  <si>
+    <t>Corregir cronograma</t>
+  </si>
+  <si>
+    <t>Se necesita tener el MVC corregido para hacer la tarea</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Crear flujo normal Caso de Uso 1</t>
+  </si>
+  <si>
+    <t>Crear pantalla de primer Casos de Uso</t>
+  </si>
+  <si>
+    <t>Revisión de pantallas</t>
+  </si>
+  <si>
+    <t>Revisión de errores de código</t>
+  </si>
+  <si>
+    <t>corrección de pantallas</t>
+  </si>
+  <si>
+    <t>corrección de errores de código</t>
+  </si>
+  <si>
+    <t>Documentación de modelo MVC</t>
+  </si>
+  <si>
+    <t>Documentación de Caso de Uso 1</t>
+  </si>
+  <si>
+    <t>Oracle SQL preferiblemente. Suficiente: SQL Lite</t>
+  </si>
+  <si>
+    <t>Revisar modelo relacional</t>
+  </si>
+  <si>
+    <t>Corregir modelo relacional</t>
+  </si>
+  <si>
+    <t>corrección de errores de pantallas</t>
+  </si>
+  <si>
+    <t>Documentación de modelo relacional</t>
+  </si>
+  <si>
+    <t>Documentación C.U 1</t>
+  </si>
+  <si>
+    <t>Documentacion C.U 1</t>
+  </si>
+  <si>
+    <t>corrección de errores de código (antes de entrega)</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
@@ -187,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +251,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,11 +304,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -274,17 +387,31 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A72A92D3-E334-4DD1-8B5B-9E136970B0F3}" name="Tabla3" displayName="Tabla3" ref="A3:G32" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A3:G32" xr:uid="{9BEBBDC5-EE9F-4F4A-BDEB-F8F8B36213DC}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A72A92D3-E334-4DD1-8B5B-9E136970B0F3}" name="Tabla3" displayName="Tabla3" ref="A3:H49" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A3:H49" xr:uid="{9BEBBDC5-EE9F-4F4A-BDEB-F8F8B36213DC}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{45061F07-E9EB-42CA-BAE5-F676D0C08594}" name="Iteracion"/>
     <tableColumn id="2" xr3:uid="{74201B4C-A788-4118-B00F-B1DF78D97842}" name="Semana iteración"/>
-    <tableColumn id="3" xr3:uid="{2AE36B6B-C1EB-449F-B59B-504E4BA1836A}" name="Objetivos" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{56081E90-517D-464C-A3E2-BC8B7DFA74E0}" name="Fecha límite" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D13104A8-FA2B-4563-B6DE-57A4A49231AF}" name="Fecha completada" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{BA9EDE06-705D-4491-B6E9-802A88DDA5C9}" name="Quienes lo realizan" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{AC4B35C8-B3B6-4C7E-961F-8EAC18EF6939}" name="Comentarios"/>
+    <tableColumn id="3" xr3:uid="{2AE36B6B-C1EB-449F-B59B-504E4BA1836A}" name="Objetivos" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{56081E90-517D-464C-A3E2-BC8B7DFA74E0}" name="Fecha límite" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D13104A8-FA2B-4563-B6DE-57A4A49231AF}" name="Fecha completada" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{BA9EDE06-705D-4491-B6E9-802A88DDA5C9}" name="Quienes lo realizan" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{AC4B35C8-B3B6-4C7E-961F-8EAC18EF6939}" name="Comentarios" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{89275710-805A-4C14-AF98-9010D5835FE8}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -587,12 +714,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676346D6-29B9-4D30-B57C-A0159E888A1C}">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,9 +731,10 @@
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -616,8 +744,9 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -639,8 +768,11 @@
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -648,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>44970</v>
@@ -657,10 +789,13 @@
         <v>44965</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -677,10 +812,13 @@
         <v>44968</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -688,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>44970</v>
@@ -697,13 +835,16 @@
         <v>44970</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -720,10 +861,13 @@
         <v>44965</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -740,386 +884,861 @@
         <v>44966</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="12">
+        <v>44970</v>
+      </c>
+      <c r="E9" s="12">
+        <v>44970</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="13">
+        <v>60</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44974</v>
+      </c>
+      <c r="E10" s="16">
+        <v>44972</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44974</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44973</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44974</v>
+      </c>
+      <c r="G12" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44974</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44973</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44975</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1">
-        <v>44970</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44970</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D15" s="1">
+        <v>44975</v>
+      </c>
+      <c r="G15" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44976</v>
+      </c>
+      <c r="G16" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44976</v>
+      </c>
+      <c r="G17" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44976</v>
+      </c>
+      <c r="G18" s="9">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44976</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44974</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44977</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44977</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44977</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44977</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44978</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44978</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="12">
         <v>44979</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="13">
+        <v>60</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="12">
+        <v>44979</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="13">
+        <v>60</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45009</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="9">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45009</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45010</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45010</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45010</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45011</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="9">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44979</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D34" s="1">
+        <v>45011</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="9">
+        <v>20</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45011</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="9">
+        <v>20</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45013</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="9">
+        <v>60</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45011</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="9">
+        <v>20</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45013</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>1</v>
+      </c>
+      <c r="B39" s="10">
+        <v>3</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="12">
+        <v>44986</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="13">
+        <v>60</v>
+      </c>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>1</v>
+      </c>
+      <c r="B40" s="10">
+        <v>3</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="12">
+        <v>44986</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="13">
+        <v>30</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="9">
+        <v>20</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44989</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="9">
+        <v>20</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44990</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44990</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10">
+        <v>5</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>44979</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D47" s="12">
+        <v>44999</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="13">
+        <v>60</v>
+      </c>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>1</v>
+      </c>
+      <c r="B48" s="18">
+        <v>5</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
-        <v>44986</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44986</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1">
-        <v>44986</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1">
-        <v>44986</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>44993</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1">
-        <v>44993</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="1">
-        <v>44993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1">
-        <v>44993</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="1">
-        <v>44999</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="D48" s="20">
         <v>45000</v>
       </c>
+      <c r="E48" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="21">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="25">
+        <f>SUM([1]!Tabla3[Tiempo estimado (minutos)]) / 60</f>
+        <v>29.75</v>
+      </c>
+      <c r="H49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma proyecto fundamentos SW.xlsx
+++ b/Cronograma proyecto fundamentos SW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Proyecto_Discoteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E28C338-B37F-4D1E-AD2F-E7BA9BC20C41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE48436-F228-46ED-8066-E547744858E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D986376F-8C97-4DB8-A64D-C8306675A2D3}"/>
   </bookViews>
@@ -301,9 +301,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,6 +338,9 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,9 +392,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
+      <sheetName val="Cronograma proyecto fundamentos"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -717,9 +719,9 @@
   <dimension ref="A2:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,16 +737,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -791,7 +793,7 @@
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>30</v>
       </c>
     </row>
@@ -814,7 +816,7 @@
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>30</v>
       </c>
     </row>
@@ -837,7 +839,7 @@
       <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>60</v>
       </c>
       <c r="H6" t="s">
@@ -863,7 +865,7 @@
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>60</v>
       </c>
     </row>
@@ -886,56 +888,56 @@
       <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>44970</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>44970</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="13">
-        <v>60</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="12">
+        <v>60</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>1</v>
-      </c>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>44974</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>44972</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>60</v>
       </c>
     </row>
@@ -955,10 +957,10 @@
       <c r="E11" s="1">
         <v>44973</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>30</v>
       </c>
     </row>
@@ -975,7 +977,7 @@
       <c r="D12" s="1">
         <v>44974</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>30</v>
       </c>
     </row>
@@ -995,29 +997,29 @@
       <c r="E13" s="1">
         <v>44973</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="1">
         <v>44975</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17">
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16">
         <v>20</v>
       </c>
     </row>
@@ -1034,7 +1036,7 @@
       <c r="D15" s="1">
         <v>44975</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>30</v>
       </c>
     </row>
@@ -1051,7 +1053,7 @@
       <c r="D16" s="1">
         <v>44976</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1068,7 +1070,7 @@
       <c r="D17" s="1">
         <v>44976</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1085,7 +1087,7 @@
       <c r="D18" s="1">
         <v>44976</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>60</v>
       </c>
       <c r="H18" t="s">
@@ -1111,7 +1113,7 @@
       <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1131,7 +1133,7 @@
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>30</v>
       </c>
     </row>
@@ -1148,10 +1150,13 @@
       <c r="D21" s="1">
         <v>44977</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="E21" s="1">
+        <v>44974</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1171,7 +1176,7 @@
       <c r="E22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1191,7 +1196,7 @@
       <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>30</v>
       </c>
     </row>
@@ -1211,7 +1216,7 @@
       <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1231,53 +1236,53 @@
       <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>1</v>
-      </c>
-      <c r="B26" s="10">
-        <v>2</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>44979</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="13">
-        <v>60</v>
-      </c>
-      <c r="H26" s="10"/>
+      <c r="E26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12">
+        <v>60</v>
+      </c>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>1</v>
-      </c>
-      <c r="B27" s="10">
-        <v>2</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="9">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>44979</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="13">
-        <v>60</v>
-      </c>
-      <c r="H27" s="10"/>
+      <c r="E27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12">
+        <v>60</v>
+      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1295,7 +1300,7 @@
       <c r="E28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>10</v>
       </c>
       <c r="H28" t="s">
@@ -1318,7 +1323,7 @@
       <c r="E29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1338,7 +1343,7 @@
       <c r="E30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1358,7 +1363,7 @@
       <c r="E31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1378,7 +1383,7 @@
       <c r="E32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1398,7 +1403,7 @@
       <c r="E33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>20</v>
       </c>
       <c r="H33" t="s">
@@ -1421,7 +1426,7 @@
       <c r="E34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>20</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -1444,7 +1449,7 @@
       <c r="E35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>20</v>
       </c>
       <c r="H35" s="3"/>
@@ -1465,7 +1470,7 @@
       <c r="E36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>60</v>
       </c>
       <c r="H36" s="3"/>
@@ -1486,7 +1491,7 @@
       <c r="E37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>20</v>
       </c>
       <c r="H37" s="3"/>
@@ -1507,53 +1512,53 @@
       <c r="E38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>1</v>
-      </c>
-      <c r="B39" s="10">
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="9">
         <v>3</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>44986</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="13">
-        <v>60</v>
-      </c>
-      <c r="H39" s="10"/>
+      <c r="E39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="12">
+        <v>60</v>
+      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>1</v>
-      </c>
-      <c r="B40" s="10">
+      <c r="A40" s="9">
+        <v>1</v>
+      </c>
+      <c r="B40" s="9">
         <v>3</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>44986</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="13">
+      <c r="E40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="12">
         <v>30</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1571,7 +1576,7 @@
       <c r="E41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>20</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -1594,7 +1599,7 @@
       <c r="E42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>20</v>
       </c>
       <c r="H42" s="3"/>
@@ -1615,7 +1620,7 @@
       <c r="E43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1635,7 +1640,7 @@
       <c r="E44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1655,7 +1660,7 @@
       <c r="E45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1675,66 +1680,66 @@
       <c r="E46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>1</v>
-      </c>
-      <c r="B47" s="10">
+      <c r="A47" s="9">
+        <v>1</v>
+      </c>
+      <c r="B47" s="9">
         <v>5</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>44999</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="13">
-        <v>60</v>
-      </c>
-      <c r="H47" s="10"/>
+      <c r="E47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="12">
+        <v>60</v>
+      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
-        <v>1</v>
-      </c>
-      <c r="B48" s="18">
+      <c r="A48" s="17">
+        <v>1</v>
+      </c>
+      <c r="B48" s="17">
         <v>5</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="19">
         <v>45000</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="21">
+      <c r="E48" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="20">
         <v>0</v>
       </c>
-      <c r="H48" s="18"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="24">
         <f>SUM([1]!Tabla3[Tiempo estimado (minutos)]) / 60</f>
         <v>29.75</v>
       </c>
-      <c r="H49" s="22"/>
+      <c r="H49" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Cronograma proyecto fundamentos SW.xlsx
+++ b/Cronograma proyecto fundamentos SW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Proyecto_Discoteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE48436-F228-46ED-8066-E547744858E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B964F7-E512-477D-8D64-E75A8C45B2CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D986376F-8C97-4DB8-A64D-C8306675A2D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>Cronograma de iteraciones</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Crear MVC Front End</t>
   </si>
   <si>
-    <t>Crear MVC Base de datos</t>
-  </si>
-  <si>
     <t>Crear MVC de control</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>Crear flujo normal Caso de Uso 1</t>
-  </si>
-  <si>
     <t>Crear pantalla de primer Casos de Uso</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>Revisión de errores de código</t>
   </si>
   <si>
-    <t>corrección de pantallas</t>
-  </si>
-  <si>
     <t>corrección de errores de código</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>Documentación de Caso de Uso 1</t>
   </si>
   <si>
-    <t>Oracle SQL preferiblemente. Suficiente: SQL Lite</t>
-  </si>
-  <si>
     <t>Revisar modelo relacional</t>
   </si>
   <si>
@@ -210,6 +198,15 @@
   </si>
   <si>
     <t>Columna1</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Corrección de pantallas</t>
+  </si>
+  <si>
+    <t>Revisar avances y ajustar cronograma</t>
   </si>
 </sst>
 </file>
@@ -403,8 +400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A72A92D3-E334-4DD1-8B5B-9E136970B0F3}" name="Tabla3" displayName="Tabla3" ref="A3:H49" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A3:H49" xr:uid="{9BEBBDC5-EE9F-4F4A-BDEB-F8F8B36213DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A72A92D3-E334-4DD1-8B5B-9E136970B0F3}" name="Tabla3" displayName="Tabla3" ref="A3:H46" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A3:H46" xr:uid="{9BEBBDC5-EE9F-4F4A-BDEB-F8F8B36213DC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{45061F07-E9EB-42CA-BAE5-F676D0C08594}" name="Iteracion"/>
     <tableColumn id="2" xr3:uid="{74201B4C-A788-4118-B00F-B1DF78D97842}" name="Semana iteración"/>
@@ -716,12 +713,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676346D6-29B9-4D30-B57C-A0159E888A1C}">
-  <dimension ref="A2:H49"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -977,50 +974,60 @@
       <c r="D12" s="1">
         <v>44974</v>
       </c>
+      <c r="E12" s="1">
+        <v>44973</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="G12" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="E13" s="1">
-        <v>44973</v>
+        <v>44975</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="8">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="G13" s="16">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>1</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="1">
         <v>44975</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16">
-        <v>20</v>
+      <c r="E14" s="1">
+        <v>44975</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1034,10 +1041,16 @@
         <v>35</v>
       </c>
       <c r="D15" s="1">
+        <v>44976</v>
+      </c>
+      <c r="E15" s="1">
         <v>44975</v>
       </c>
+      <c r="F15" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1053,6 +1066,12 @@
       <c r="D16" s="1">
         <v>44976</v>
       </c>
+      <c r="E16" s="1">
+        <v>44975</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G16" s="8">
         <v>60</v>
       </c>
@@ -1070,8 +1089,17 @@
       <c r="D17" s="1">
         <v>44976</v>
       </c>
+      <c r="E17" s="1">
+        <v>44976</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G17" s="8">
         <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,16 +1110,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>44976</v>
       </c>
+      <c r="E18" s="1">
+        <v>44974</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="8">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="E19" s="1">
         <v>44974</v>
@@ -1114,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,74 +1161,74 @@
       <c r="D20" s="1">
         <v>44977</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
+      <c r="E20" s="1">
+        <v>44976</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G20" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44977</v>
-      </c>
-      <c r="E21" s="1">
-        <v>44974</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="8">
-        <v>60</v>
-      </c>
+      <c r="C21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="11">
+        <v>44979</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12">
+        <v>60</v>
+      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="9">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1">
-        <v>44977</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="8">
-        <v>20</v>
-      </c>
+      <c r="C22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="11">
+        <v>44979</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12">
+        <v>60</v>
+      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1">
-        <v>44977</v>
+        <v>45009</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1205,19 +1236,19 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
-        <v>44978</v>
+        <v>45009</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="8">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,64 +1256,60 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45009</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="1">
-        <v>44978</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="9">
-        <v>2</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="1">
+        <v>45010</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="11">
-        <v>44979</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12">
-        <v>60</v>
-      </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>1</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="11">
-        <v>44979</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="12">
-        <v>60</v>
-      </c>
-      <c r="H27" s="9"/>
+      <c r="D27" s="1">
+        <v>45010</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="8">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1292,19 +1319,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="8">
-        <v>10</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1315,16 +1339,16 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="8">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1335,17 +1359,20 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="8">
         <v>20</v>
       </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1355,16 +1382,19 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="8">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,17 +1405,18 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="8">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1395,20 +1426,18 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1">
-        <v>45011</v>
+        <v>45013</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="8">
-        <v>20</v>
-      </c>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1418,20 +1447,18 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1">
         <v>45011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" s="8">
         <v>20</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1444,121 +1471,122 @@
         <v>43</v>
       </c>
       <c r="D35" s="1">
-        <v>45011</v>
+        <v>45013</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="8">
-        <v>20</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9">
         <v>3</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="1">
-        <v>45013</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="8">
-        <v>60</v>
-      </c>
-      <c r="H36" s="3"/>
+      <c r="C36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="11">
+        <v>44986</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12">
+        <v>60</v>
+      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="9">
+        <v>1</v>
+      </c>
+      <c r="B37" s="9">
         <v>3</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="1">
-        <v>45011</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="8">
-        <v>20</v>
-      </c>
-      <c r="H37" s="3"/>
+      <c r="C37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="11">
+        <v>44986</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12">
+        <v>30</v>
+      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1">
-        <v>45013</v>
+        <v>44988</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="8">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>1</v>
-      </c>
-      <c r="B39" s="9">
-        <v>3</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="11">
-        <v>44986</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="12">
-        <v>60</v>
-      </c>
-      <c r="H39" s="9"/>
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44989</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="8">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>1</v>
-      </c>
-      <c r="B40" s="9">
-        <v>3</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="11">
-        <v>44986</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="12">
-        <v>30</v>
-      </c>
-      <c r="H40" s="9"/>
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44990</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="8">
+        <v>60</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1568,19 +1596,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41" s="8">
-        <v>20</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1591,155 +1616,94 @@
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1">
-        <v>44989</v>
+        <v>44993</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="8">
         <v>20</v>
       </c>
-      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="1">
-        <v>44990</v>
+        <v>44999</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="1">
-        <v>44990</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="8">
-        <v>60</v>
-      </c>
+      <c r="A44" s="9">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="11">
+        <v>44999</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="12">
+        <v>60</v>
+      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44993</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="8">
-        <v>20</v>
-      </c>
+      <c r="A45" s="17">
+        <v>1</v>
+      </c>
+      <c r="B45" s="17">
+        <v>5</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="19">
+        <v>45000</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="20">
+        <v>0</v>
+      </c>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="1">
-        <v>44999</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>1</v>
-      </c>
-      <c r="B47" s="9">
-        <v>5</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="11">
-        <v>44999</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="12">
-        <v>60</v>
-      </c>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <v>1</v>
-      </c>
-      <c r="B48" s="17">
-        <v>5</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="19">
-        <v>45000</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="20">
-        <v>0</v>
-      </c>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="24">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="24" t="e">
         <f>SUM([1]!Tabla3[Tiempo estimado (minutos)]) / 60</f>
-        <v>29.75</v>
-      </c>
-      <c r="H49" s="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H46" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Cronograma proyecto fundamentos SW.xlsx
+++ b/Cronograma proyecto fundamentos SW.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Proyecto_Discoteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B964F7-E512-477D-8D64-E75A8C45B2CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E8FFF-1419-4C9A-9B30-58942C2A138B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D986376F-8C97-4DB8-A64D-C8306675A2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -382,21 +379,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Cronograma proyecto fundamentos"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,10 +697,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676346D6-29B9-4D30-B57C-A0159E888A1C}">
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,11 +1226,14 @@
       <c r="D24" s="1">
         <v>45009</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>39</v>
+      <c r="E24" s="1">
+        <v>44977</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G24" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,8 +1249,11 @@
       <c r="D25" s="1">
         <v>45009</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>39</v>
+      <c r="E25" s="1">
+        <v>44976</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G25" s="8">
         <v>60</v>
@@ -1284,8 +1272,11 @@
       <c r="D26" s="1">
         <v>45010</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>39</v>
+      <c r="E26" s="1">
+        <v>44976</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G26" s="8">
         <v>20</v>
@@ -1364,8 +1355,11 @@
       <c r="D30" s="1">
         <v>45011</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>39</v>
+      <c r="E30" s="1">
+        <v>44978</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G30" s="8">
         <v>20</v>
@@ -1699,9 +1693,9 @@
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="22"/>
-      <c r="G46" s="24" t="e">
-        <f>SUM([1]!Tabla3[Tiempo estimado (minutos)]) / 60</f>
-        <v>#REF!</v>
+      <c r="G46" s="24">
+        <f>SUM(G4:G45)/60</f>
+        <v>28.083333333333332</v>
       </c>
       <c r="H46" s="21"/>
     </row>
